--- a/Nessus_to_Excel/GenerateExcel_Executive/template/template_executive.xlsx
+++ b/Nessus_to_Excel/GenerateExcel_Executive/template/template_executive.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabobes\Desktop\Nessus_to_Excel\GenerateExcel_Executive\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECCB97C-E347-46E8-BE8B-45F0364BEAA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Executive Report" sheetId="1" r:id="rId1"/>
@@ -60,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/yy"/>
   </numFmts>
@@ -509,22 +505,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="68.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="5" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="4"/>
+    <col min="7" max="7" width="68.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -550,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>0</v>
       </c>
@@ -576,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
@@ -587,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
@@ -598,7 +594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
@@ -609,7 +605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
@@ -620,7 +616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
@@ -631,7 +627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G9" s="4" t="s">
         <v>9</v>
       </c>
@@ -642,7 +638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G10" s="4" t="s">
         <v>9</v>
       </c>
@@ -653,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G11" s="4" t="s">
         <v>9</v>
       </c>
@@ -664,7 +660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G12" s="4" t="s">
         <v>9</v>
       </c>
@@ -675,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G13" s="4" t="s">
         <v>9</v>
       </c>
@@ -686,7 +682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G14" s="4" t="s">
         <v>9</v>
       </c>
@@ -697,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G15" s="4" t="s">
         <v>9</v>
       </c>
@@ -708,7 +704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G16" s="4" t="s">
         <v>9</v>
       </c>
@@ -719,7 +715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G17" s="4" t="s">
         <v>9</v>
       </c>
@@ -730,7 +726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G18" s="4" t="s">
         <v>9</v>
       </c>
@@ -741,7 +737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G19" s="4" t="s">
         <v>9</v>
       </c>
@@ -752,7 +748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G20" s="4" t="s">
         <v>9</v>
       </c>
@@ -763,7 +759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G21" s="4" t="s">
         <v>9</v>
       </c>
@@ -774,7 +770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G22" s="4" t="s">
         <v>9</v>
       </c>
@@ -782,7 +778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G23" s="4" t="s">
         <v>9</v>
       </c>
@@ -793,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G24" s="4" t="s">
         <v>9</v>
       </c>
@@ -804,7 +800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G25" s="4" t="s">
         <v>9</v>
       </c>
@@ -815,7 +811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G26" s="4" t="s">
         <v>9</v>
       </c>
@@ -826,7 +822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G27" s="4" t="s">
         <v>9</v>
       </c>
@@ -837,7 +833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G28" s="4" t="s">
         <v>9</v>
       </c>
@@ -848,7 +844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G29" s="4" t="s">
         <v>9</v>
       </c>
@@ -859,7 +855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G30" s="4" t="s">
         <v>9</v>
       </c>
@@ -870,7 +866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G31" s="4" t="s">
         <v>9</v>
       </c>
@@ -881,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G32" s="4" t="s">
         <v>9</v>
       </c>
@@ -892,7 +888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G33" s="4" t="s">
         <v>9</v>
       </c>
@@ -901,7 +897,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G2:I2"/>
+  <autoFilter ref="G2:I2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>